--- a/src/demos/zdemo_excel15#3.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15#3.w3mi.data.xlsx
@@ -237,6 +237,27 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:M95" totalsRowShown="0">
+  <tableColumns count="13">
+    <tableColumn id="2" name="Airline"/>
+    <tableColumn id="3" name="Flight Number"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Airfare"/>
+    <tableColumn id="6" name="Airline Currency"/>
+    <tableColumn id="7" name="Plane Type"/>
+    <tableColumn id="8" name="Max. capacity econ."/>
+    <tableColumn id="9" name="Occupied econ."/>
+    <tableColumn id="10" name="Total"/>
+    <tableColumn id="11" name="Max. capacity bus."/>
+    <tableColumn id="12" name="Occupied bus."/>
+    <tableColumn id="13" name="Max. capacity 1st"/>
+    <tableColumn id="14" name="Occupied 1st"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,7 +534,7 @@
     <col min="5" max="5" width="1.1000000000000000E+01" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -554,7 +575,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -595,7 +616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -636,7 +657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -677,7 +698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -718,7 +739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -759,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -800,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -841,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -882,7 +903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -923,7 +944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -964,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1046,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1210,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1292,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1333,7 +1354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +1395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1456,7 +1477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1497,7 +1518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1538,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1579,7 +1600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1620,7 +1641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1661,7 +1682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1743,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1784,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1825,7 +1846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1866,7 +1887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1907,7 +1928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1948,7 +1969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1989,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2030,7 +2051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2071,7 +2092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2112,7 +2133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2153,7 +2174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2194,7 +2215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2235,7 +2256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2276,7 +2297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -2358,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2399,7 +2420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -2440,7 +2461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2481,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -2522,7 +2543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2563,7 +2584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -2604,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2645,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -2686,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2727,7 +2748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2768,7 +2789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -2809,7 +2830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -2850,7 +2871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -2891,7 +2912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2932,7 +2953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -2973,7 +2994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -3014,7 +3035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -3055,7 +3076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3096,7 +3117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3137,7 +3158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3178,7 +3199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -3219,7 +3240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -3260,7 +3281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -3301,7 +3322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -3342,7 +3363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -3383,7 +3404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -3424,7 +3445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -3465,7 +3486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -3506,7 +3527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -3547,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -3588,7 +3609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -3629,7 +3650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -3670,7 +3691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -3711,7 +3732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -3752,7 +3773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -3793,7 +3814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -3834,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -3875,7 +3896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -3916,7 +3937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -3957,7 +3978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -3998,7 +4019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -4039,7 +4060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -4080,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -4121,7 +4142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -4162,7 +4183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>54</v>
       </c>
@@ -4203,7 +4224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -4244,7 +4265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -4285,7 +4306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -4326,7 +4347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -4367,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="0.0000000000000000E+00">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -4410,7 +4431,7 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" ShowDropDown="1" errorStyle="stop" sqref="C4">
+    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" ShowDropDown="0" errorStyle="stop" sqref="C4">
       <formula1>Airlines</formula1>
     </dataValidation>
   </dataValidations>
@@ -4419,6 +4440,9 @@
   <ignoredErrors>
     <ignoredError sqref="B2:B95" numberStoredAsText="1"/>
   </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4435,97 +4459,97 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>54</v>
       </c>
